--- a/Hisse_Senedi_Fon_Analizi_2025-08-04.xlsx
+++ b/Hisse_Senedi_Fon_Analizi_2025-08-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Fon Kodu</t>
   </si>
@@ -49,6 +49,9 @@
     <t>HEH</t>
   </si>
   <si>
+    <t>PPM</t>
+  </si>
+  <si>
     <t>KPF</t>
   </si>
   <si>
@@ -61,22 +64,22 @@
     <t>AC5</t>
   </si>
   <si>
-    <t>YMH</t>
-  </si>
-  <si>
-    <t>SKO</t>
-  </si>
-  <si>
     <t>HIM</t>
   </si>
   <si>
     <t>FS5</t>
   </si>
   <si>
+    <t>HAT</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
     <t>IAU</t>
   </si>
   <si>
-    <t>BIH</t>
+    <t>NSH</t>
   </si>
   <si>
     <t>KIH</t>
@@ -88,24 +91,21 @@
     <t>EC2</t>
   </si>
   <si>
+    <t>PBN</t>
+  </si>
+  <si>
+    <t>MHF</t>
+  </si>
+  <si>
     <t>NLE</t>
   </si>
   <si>
-    <t>PBN</t>
-  </si>
-  <si>
-    <t>MHF</t>
-  </si>
-  <si>
     <t>MTK</t>
   </si>
   <si>
     <t>FRC</t>
   </si>
   <si>
-    <t>PMP</t>
-  </si>
-  <si>
     <t>ZPE</t>
   </si>
   <si>
@@ -115,31 +115,28 @@
     <t>MTF</t>
   </si>
   <si>
+    <t>MGB</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>BRT</t>
+  </si>
+  <si>
+    <t>HDK</t>
+  </si>
+  <si>
     <t>ALC</t>
   </si>
   <si>
-    <t>RHS</t>
-  </si>
-  <si>
-    <t>SBH</t>
-  </si>
-  <si>
-    <t>BRT</t>
-  </si>
-  <si>
-    <t>HDK</t>
-  </si>
-  <si>
-    <t>MGB</t>
-  </si>
-  <si>
     <t>RBH</t>
   </si>
   <si>
     <t>HGM</t>
   </si>
   <si>
-    <t>TLH</t>
+    <t>GO9</t>
   </si>
   <si>
     <t>NNF</t>
@@ -148,7 +145,7 @@
     <t>ADP</t>
   </si>
   <si>
-    <t>MPS</t>
+    <t>ZJL</t>
   </si>
   <si>
     <t>FNT</t>
@@ -157,250 +154,190 @@
     <t>GBJ</t>
   </si>
   <si>
-    <t>GO9</t>
-  </si>
-  <si>
     <t>TAU</t>
   </si>
   <si>
-    <t>FPH</t>
-  </si>
-  <si>
-    <t>YCP</t>
-  </si>
-  <si>
-    <t>ZJL</t>
+    <t>KVT</t>
+  </si>
+  <si>
+    <t>GNH</t>
   </si>
   <si>
     <t>ZHH</t>
   </si>
   <si>
+    <t>GNS</t>
+  </si>
+  <si>
+    <t>KHB</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
     <t>KST</t>
   </si>
   <si>
-    <t>PTO</t>
-  </si>
-  <si>
-    <t>GNH</t>
-  </si>
-  <si>
-    <t>BNH</t>
-  </si>
-  <si>
-    <t>TKF</t>
-  </si>
-  <si>
-    <t>KOT</t>
-  </si>
-  <si>
-    <t>GNS</t>
-  </si>
-  <si>
-    <t>KVT</t>
-  </si>
-  <si>
-    <t>KHB</t>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>MUT</t>
+  </si>
+  <si>
+    <t>KHA</t>
+  </si>
+  <si>
+    <t>ELZ</t>
+  </si>
+  <si>
+    <t>TI3</t>
   </si>
   <si>
     <t>BFT</t>
   </si>
   <si>
-    <t>ELZ</t>
-  </si>
-  <si>
     <t>BSH</t>
   </si>
   <si>
-    <t>KHA</t>
+    <t>HKH</t>
   </si>
   <si>
     <t>KPC</t>
   </si>
   <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>GOH</t>
+  </si>
+  <si>
     <t>AK3</t>
   </si>
   <si>
-    <t>GKV</t>
-  </si>
-  <si>
-    <t>HKH</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>YHI</t>
-  </si>
-  <si>
-    <t>PPH</t>
-  </si>
-  <si>
     <t>YHK</t>
   </si>
   <si>
+    <t>OHB</t>
+  </si>
+  <si>
     <t>LLA</t>
   </si>
   <si>
-    <t>OHB</t>
-  </si>
-  <si>
-    <t>BIG</t>
-  </si>
-  <si>
-    <t>GOH</t>
-  </si>
-  <si>
-    <t>IHA</t>
+    <t>IMB</t>
+  </si>
+  <si>
+    <t>HMG</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>MTH</t>
   </si>
   <si>
     <t>KTI</t>
   </si>
   <si>
-    <t>GHS</t>
-  </si>
-  <si>
-    <t>OMG</t>
-  </si>
-  <si>
     <t>PHK</t>
   </si>
   <si>
-    <t>HMG</t>
-  </si>
-  <si>
-    <t>GKG</t>
+    <t>TI2</t>
+  </si>
+  <si>
+    <t>IML</t>
+  </si>
+  <si>
+    <t>BHL</t>
+  </si>
+  <si>
+    <t>ZBO</t>
   </si>
   <si>
     <t>SAS</t>
   </si>
   <si>
-    <t>IMB</t>
-  </si>
-  <si>
-    <t>BHL</t>
-  </si>
-  <si>
-    <t>IML</t>
-  </si>
-  <si>
-    <t>ZBO</t>
+    <t>KPA</t>
   </si>
   <si>
     <t>GBH</t>
   </si>
   <si>
-    <t>HVS</t>
-  </si>
-  <si>
-    <t>DOH</t>
+    <t>IVF</t>
   </si>
   <si>
     <t>BDY</t>
   </si>
   <si>
-    <t>SRL</t>
-  </si>
-  <si>
-    <t>IVF</t>
-  </si>
-  <si>
-    <t>KPA</t>
-  </si>
-  <si>
     <t>BST</t>
   </si>
   <si>
-    <t>GRT</t>
-  </si>
-  <si>
-    <t>YPR</t>
-  </si>
-  <si>
-    <t>RHI</t>
-  </si>
-  <si>
     <t>ICZ</t>
   </si>
   <si>
     <t>BHA</t>
   </si>
   <si>
+    <t>DTL</t>
+  </si>
+  <si>
+    <t>DKH</t>
+  </si>
+  <si>
+    <t>YHB</t>
+  </si>
+  <si>
     <t>YHZ</t>
   </si>
   <si>
-    <t>PYR</t>
-  </si>
-  <si>
-    <t>RIA</t>
-  </si>
-  <si>
-    <t>YHB</t>
-  </si>
-  <si>
-    <t>DTL</t>
-  </si>
-  <si>
-    <t>HNC</t>
-  </si>
-  <si>
-    <t>BTZ</t>
-  </si>
-  <si>
-    <t>DKH</t>
+    <t>HFI</t>
   </si>
   <si>
     <t>KTS</t>
   </si>
   <si>
-    <t>THF</t>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
     <t>MKA</t>
   </si>
   <si>
-    <t>RDF</t>
-  </si>
-  <si>
     <t>ZJV</t>
   </si>
   <si>
+    <t>HRZ</t>
+  </si>
+  <si>
+    <t>KPU</t>
+  </si>
+  <si>
     <t>KHT</t>
   </si>
   <si>
-    <t>KPU</t>
+    <t>KHC</t>
   </si>
   <si>
     <t>IHP</t>
   </si>
   <si>
+    <t>POS</t>
+  </si>
+  <si>
     <t>HVZ</t>
   </si>
   <si>
-    <t>GTH</t>
-  </si>
-  <si>
-    <t>RPI</t>
-  </si>
-  <si>
-    <t>KHC</t>
-  </si>
-  <si>
     <t>TTE</t>
   </si>
   <si>
+    <t>NPH</t>
+  </si>
+  <si>
     <t>BV1</t>
   </si>
   <si>
-    <t>POS</t>
-  </si>
-  <si>
     <t>AOJ</t>
   </si>
   <si>
-    <t>GLG</t>
+    <t>THT</t>
   </si>
   <si>
     <t>MGH</t>
@@ -415,18 +352,24 @@
     <t>IDI</t>
   </si>
   <si>
-    <t>SNY</t>
-  </si>
-  <si>
     <t>RKH</t>
   </si>
   <si>
     <t>PAO</t>
   </si>
   <si>
+    <t>GIH</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
     <t>KLH</t>
   </si>
   <si>
+    <t>THV</t>
+  </si>
+  <si>
     <t>AZİMUT PORTFÖY MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
@@ -436,6 +379,9 @@
     <t>HEDEF PORTFÖY ALGO EVEREST İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>PİRAMİT PORTFÖY MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>NEO PORTFÖY KAPADOKYA HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
@@ -448,22 +394,22 @@
     <t>PARDUS PORTFÖY İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>YAPI KREDİ PORTFÖY MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>STRATEJİ PORTFÖY KAR PAYI ÖDEYEN HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>HEDEF PORTFÖY İKİNCİ MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>FONERİA PORTFÖY BİRİNCİ İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST FON(HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>HEDEF PORTFÖY ATLAS İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>PARDUS PORTFÖY BİRİNCİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>PARDUS PORTFÖY İKİNCİ İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>PARDUS PORTFÖY BİRİNCİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>NUROL PORTFÖY İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>KARE PORTFÖY İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
@@ -475,24 +421,21 @@
     <t>GLOBAL MD ASSET MANAGEMENT FIRST EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
   </si>
   <si>
+    <t>PİRAMİT PORTFÖY BİRİNCİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>MT PORTFÖY BIST HALKA ARZ ŞİRKETLERİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>NUROL PORTFÖY EMLAK SEKTÖRÜ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>PİRAMİT PORTFÖY BİRİNCİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>MT PORTFÖY BIST HALKA ARZ ŞİRKETLERİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>MT PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>FONMAP PORTFÖY BİRİNCİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>PARDUS PORTFÖY MODEL PORTFÖY HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>ZİRAAT ASSET MANAGEMENT PARTICIPATION EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
   </si>
   <si>
@@ -502,31 +445,28 @@
     <t>MT PORTFÖY BİRİNCİ İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>İŞ PORTFÖY MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>ROTA PORTFÖY HİSSE SENEDİ (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>PARDUS PORTFÖY BEREKET HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>HEDEF PORTFÖY VEGA İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>AK PORTFÖY DIVIDEND PAYING COMPANIES EQUITY (TL) FUND (EQUITY INTENSIVE FUND)</t>
   </si>
   <si>
-    <t>ROTA PORTFÖY HİSSE SENEDİ (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>SPARTA PORTFÖY BİRİNCİ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>PARDUS PORTFÖY BEREKET HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>HEDEF PORTFÖY VEGA İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>İŞ PORTFÖY MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>ALBARAKA ASSET MANAGEMENT PARTICIPATION EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
   </si>
   <si>
     <t>HEDEF PORTFÖY İKİNCİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>AURA ASSET MANAGEMENT EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
+    <t>FONERİA PORTFÖY BİRİNCİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>HEDEF PORTFÖY BİRİNCİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
@@ -535,7 +475,7 @@
     <t>AK ASSET MANAGEMENT BIST BANK INDEX EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
   </si>
   <si>
-    <t>AKTİF ASSET MANAGEMENT PARTICIPATION EQUITY (TL) FUND (EQUITY-INTENSIVE FUND)</t>
+    <t>ZİRAAT PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>HEDEF PORTFÖY MODEL HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
@@ -544,250 +484,190 @@
     <t>GARANTİ PORTFÖY BANKACILIK SEKTÖRÜ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>FONERİA PORTFÖY BİRİNCİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>İŞ ASSET MANAGEMENT BIST BANKS INDEX EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
   </si>
   <si>
-    <t>FİBA ASSET MANAGEMENT EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
-  </si>
-  <si>
-    <t>YAPI KREDİ PORTFÖY BANKACILIK SEKTÖRÜ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>ZİRAAT PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>AK PORTFÖY ENERJİ ŞİRKETLERİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>GLOBAL MD PORTFÖY ALGORİTMİK MODEL HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>ZİRAAT PORTFÖY HALKBANK SÜRDÜRÜLEBİLİRLİK 30 ŞİRKETLERİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>GARANTİ PORTFÖY ENERJİ ŞİRKETLERİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>KARE PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>AZİMUT PORTFÖY KOÇ TOPLULUĞU ŞİRKETLERİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>ALLBATROSS PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>PARDUS PORTFÖY TEMETTÜ ÖDEYEN ŞİRKETLER HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>GLOBAL MD PORTFÖY ALGORİTMİK MODEL HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>İSTANBUL PORTFÖY BANKACILIK SEKTÖRÜ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>TACİRLER ASSET MANAGEMENT EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
-  </si>
-  <si>
-    <t>AZİMUT PORTFÖY KOÇ TOPLULUĞU ŞİRKETLERİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>GARANTİ PORTFÖY ENERJİ ŞİRKETLERİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>AK PORTFÖY ENERJİ ŞİRKETLERİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>KARE PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>AKTİF PORTFÖY İNŞAAT SEKTÖRÜ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>GARANTİ PORTFÖY MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>PARDUS PORTFÖY İKİNCİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>QİNVEST PORTFÖY KATILIM HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>İŞ ASSET MANAGEMENT İŞ BANK SUBSIDIARIES INDEX EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
   </si>
   <si>
     <t>AZİMUT PORTFÖY BANKA VE FİNANS SEKTÖRÜ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>QİNVEST PORTFÖY KATILIM HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>ATLAS PORTFÖY BANKACILIK SEKTÖRÜ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>PARDUS PORTFÖY İKİNCİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>HEDEF PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>KUVEYT TÜRK PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>YAPI KREDİ PORTFÖY ÜÇÜNCÜ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>PİRAMİT PORTFÖY HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>GARANTİ PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>AK ASSET MANAGEMENT EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
   </si>
   <si>
-    <t>GARANTİ PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>HEDEF PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>PİRAMİT PORTFÖY HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>YAPI KREDİ PORTFÖY İNŞAAT SEKTÖRÜ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>PARDUS PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>YAPI KREDİ PORTFÖY KATILIM HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>OYAK ASSET MANAGEMENT FIRST EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
+  </si>
+  <si>
     <t>ALLBATROSS PORTFÖY AYDIN HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>OYAK ASSET MANAGEMENT FIRST EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
-  </si>
-  <si>
-    <t>YAPI KREDİ PORTFÖY ÜÇÜNCÜ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>GARANTİ PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>ALLBATROSS PORTFÖY İKİNCİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>İSTANBUL PORTFÖY ALGORİTMİK MODEL HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>HSBC PYŞ MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST (TL) FON(HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>AZİMUT PORTFÖY İKİNCİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>MT PORTFÖY BİRİNCİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>AZİMUT PORTFÖY KATILIM HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>GARANTİ ASSET MANAGEMENT EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
-  </si>
-  <si>
-    <t>AZİMUT PORTFÖY İKİNCİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>PHİLLİP PORTFÖY KATILIM HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>HSBC PYŞ MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST (TL) FON(HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>GARANTİ PORTFÖY KAR PAYI ÖDEYEN HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>İŞ ASSET MANAGEMENT EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
+  </si>
+  <si>
+    <t>İŞ PORTFÖY MODEL PORTFÖY HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>İŞ PORTFÖY BİRİNCİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>ZİRAAT PORTFÖY MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>AK PORTFÖY SABANCI TOPLULUĞU ŞİRKETLERİ ENDEKSİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>İSTANBUL PORTFÖY ALGORİTMİK MODEL HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>İŞ PORTFÖY BİRİNCİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>İŞ PORTFÖY MODEL PORTFÖY HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>ZİRAAT PORTFÖY MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>KUVEYT TÜRK PORTFÖY KAR PAYI ÖDEYEN KATILIM HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>GARANTİ PORTFÖY BİRİNCİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>HSBC ASSET MANAGEMENT EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
-  </si>
-  <si>
-    <t>TERA PORTFÖY DÖRDÜNCÜ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>İSTANBUL PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>AK PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>PARDUS PORTFÖY SÜRDÜRÜLEBİLİRLİK HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>İSTANBUL PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>KUVEYT TÜRK PORTFÖY KAR PAYI ÖDEYEN KATILIM HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>PARDUS PORTFÖY BANKACILIK SEKTÖRÜ DIŞI ŞİRKETLER HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>GARANTİ PORTFÖY TEKNOLOJİ ŞİRKETLERİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>AZİMUT PORTFÖY YILDIZ PAZAR ŞİRKETLERİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>RE-PIE PORTFÖY BİRİNCİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>AK PORTFÖY TEKNOLOJİ ŞİRKETLERİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>BULLS PORTFÖY HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>DENİZ PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>DENİZ PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>YAPI KREDİ PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>YAPI KREDİ PORTFÖY BIST TEKNOLOJİ AĞIRLIK SINIRLAMALI ENDEKSİ HİSSE SENEDİ FONU ( HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>PARDUS PORTFÖY YİRMİNCİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>ROTA PORTFÖY İSTATİSTİKSEL ARBİTRAJ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>YAPI KREDİ PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>DENİZ PORTFÖY BIST 100 DIŞI ŞİRKETLER HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>HEDEF PORTFÖY ÜÇÜNCÜ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>ATLAS PORTFÖY BIST 30 DIŞI ŞİRKETLER HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>DENİZ PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>HEDEF PORTFÖY İKİNCİ KATILIM HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>KUVEYT TÜRK PORTFÖY KATILIM HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>TERA PORTFÖY HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>YAPI KREDİ PORTFÖY SAVUNMA SANAYİİ ŞİRKETLERİ ENDEKSİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>MARMARA CAPİTAL PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>ROTA PORTFÖY DOKUZUNCU HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>ZİRAAT PORTFÖY BIST 30 DIŞI YILDIZ PAZAR ŞİRKETLERİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>AKTİF PORTFÖY BIST HALKA ARZ ŞİRKETLERİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>KUVEYT TÜRK PORTFÖY İKİNCİ KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>ALLBATROSS PORTFÖY KARTAL HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>KUVEYT TÜRK PORTFÖY İKİNCİ KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>PARDUS PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>İSTANBUL PORTFÖY İKİNCİ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>PARDUS PORTFÖY ONBEŞİNCİ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>ALLBATROSS PORTFÖY BİRİNCİ HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>GARANTİ PORTFÖY İHRACATÇI ŞİRKETLER HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>ROTA PORTFÖY İKİNCİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
-    <t>PARDUS PORTFÖY KATILIM HİSSE SENEDİ (TL) FONU (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>İŞ ASSET MANAGEMENT BIST TECHNOLOGY CAPPED INDEX EQUITY FUND (EQUITY-INTENSIVE FUND)</t>
   </si>
   <si>
+    <t>NUROL PORTFÖY BİRİNCİ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>BV PORTFÖY BİRİNCİ HİSSE SENEDİ (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>PARDUS PORTFÖY ONBEŞİNCİ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>ALLBATROSS PORTFÖY İNŞAAT SEKTÖRÜ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>AKTİF PORTFÖY CAPİTAL HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+    <t>TRİVE PORTFÖY HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>TEB PORTFÖY MUTLAK GETİRİ HEDEFLİ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
@@ -802,16 +682,22 @@
     <t>AZİMUT PORTFÖY İNŞAAT SEKTÖRÜ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
-    <t>ATLAS PORTFÖY SANAYİ SEKTÖRÜ HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
-  </si>
-  <si>
     <t>RE-PIE PORTFÖY KATILIM HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
     <t>PARDUS PORTFÖY ANADOLU HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
   <si>
+    <t>ALLBATROSS PORTFÖY GIDA VE İÇECEK SEKTÖRÜ HİSSE SENEDİ FONU (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>AKTİF PORTFÖY BİRİNCİ HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
     <t>ATLAS PORTFÖY KATILIM HİSSE SENEDİ SERBEST FON (HİSSE SENEDİ YOĞUN FON)</t>
+  </si>
+  <si>
+    <t>ATA PORTFÖY BARBAROS HİSSE SENEDİ SERBEST (TL) FON (HİSSE SENEDİ YOĞUN FON)</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,25 +1102,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>81766699.16</v>
+        <v>84811280.08</v>
       </c>
       <c r="E2">
-        <v>399.92</v>
+        <v>179.93</v>
       </c>
       <c r="F2">
-        <v>15.57</v>
+        <v>13.89</v>
       </c>
       <c r="G2">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H2">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1242,25 +1128,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C3">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="D3">
-        <v>683072256.9299999</v>
+        <v>685188291.58</v>
       </c>
       <c r="E3">
-        <v>53.02</v>
+        <v>54.73</v>
       </c>
       <c r="F3">
-        <v>16.48</v>
+        <v>15.96</v>
       </c>
       <c r="G3">
-        <v>9.529999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="H3">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1268,25 +1154,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C4">
-        <v>4993</v>
+        <v>4991</v>
       </c>
       <c r="D4">
-        <v>2493351961.26</v>
+        <v>2458433079.05</v>
       </c>
       <c r="E4">
-        <v>47.86</v>
+        <v>47.25</v>
       </c>
       <c r="F4">
-        <v>15.23</v>
+        <v>15.09</v>
       </c>
       <c r="G4">
-        <v>9.81</v>
+        <v>9.84</v>
       </c>
       <c r="H4">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1294,25 +1180,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C5">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="D5">
-        <v>854536833.6900001</v>
+        <v>197441232.38</v>
       </c>
       <c r="E5">
-        <v>35.79</v>
+        <v>36.3</v>
       </c>
       <c r="F5">
-        <v>17.03</v>
+        <v>15.93</v>
       </c>
       <c r="G5">
-        <v>9.93</v>
+        <v>11.03</v>
       </c>
       <c r="H5">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1320,25 +1206,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C6">
-        <v>680</v>
+        <v>152</v>
       </c>
       <c r="D6">
-        <v>1600037282.74</v>
+        <v>854623236.25</v>
       </c>
       <c r="E6">
-        <v>34.73</v>
+        <v>35.28</v>
       </c>
       <c r="F6">
-        <v>14.6</v>
+        <v>16.8</v>
       </c>
       <c r="G6">
-        <v>9.859999999999999</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="H6">
-        <v>2.83</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1346,25 +1232,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C7">
-        <v>381</v>
+        <v>695</v>
       </c>
       <c r="D7">
-        <v>409909164.31</v>
+        <v>1614893573.85</v>
       </c>
       <c r="E7">
-        <v>33.44</v>
+        <v>33.54</v>
       </c>
       <c r="F7">
-        <v>17.04</v>
+        <v>14.35</v>
       </c>
       <c r="G7">
-        <v>11.75</v>
+        <v>9.85</v>
       </c>
       <c r="H7">
-        <v>2.79</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1372,25 +1258,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C8">
-        <v>168</v>
+        <v>378</v>
       </c>
       <c r="D8">
-        <v>80450146.59</v>
+        <v>402025233.3</v>
       </c>
       <c r="E8">
-        <v>30.56</v>
+        <v>33.12</v>
       </c>
       <c r="F8">
-        <v>12.73</v>
+        <v>16.96</v>
       </c>
       <c r="G8">
-        <v>10.1</v>
+        <v>11.84</v>
       </c>
       <c r="H8">
-        <v>3.26</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1398,25 +1284,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C9">
-        <v>404</v>
+        <v>168</v>
       </c>
       <c r="D9">
-        <v>467678761.22</v>
+        <v>80590992.92</v>
       </c>
       <c r="E9">
-        <v>27.34</v>
+        <v>30.1</v>
       </c>
       <c r="F9">
-        <v>14.61</v>
+        <v>12.58</v>
       </c>
       <c r="G9">
-        <v>9.210000000000001</v>
+        <v>10.11</v>
       </c>
       <c r="H9">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1424,25 +1310,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>649</v>
       </c>
       <c r="D10">
-        <v>6197135.3</v>
+        <v>432000656.79</v>
       </c>
       <c r="E10">
-        <v>26.87</v>
+        <v>24.36</v>
       </c>
       <c r="F10">
-        <v>8.08</v>
+        <v>14.16</v>
       </c>
       <c r="G10">
-        <v>8.710000000000001</v>
+        <v>10.52</v>
       </c>
       <c r="H10">
-        <v>18.94</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1450,25 +1336,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C11">
-        <v>636</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>419666202.3</v>
+        <v>42080600.71</v>
       </c>
       <c r="E11">
-        <v>24.68</v>
+        <v>21.72</v>
       </c>
       <c r="F11">
-        <v>14.28</v>
+        <v>10.38</v>
       </c>
       <c r="G11">
-        <v>10.48</v>
+        <v>8.23</v>
       </c>
       <c r="H11">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1476,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="D12">
-        <v>42089031.18</v>
+        <v>160900553.71</v>
       </c>
       <c r="E12">
-        <v>22.57</v>
+        <v>20.67</v>
       </c>
       <c r="F12">
-        <v>10.55</v>
+        <v>11.24</v>
       </c>
       <c r="G12">
-        <v>8.25</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="H12">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1502,25 +1388,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C13">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="D13">
-        <v>64720066.32</v>
+        <v>450261979.72</v>
       </c>
       <c r="E13">
-        <v>19.83</v>
+        <v>20.55</v>
       </c>
       <c r="F13">
-        <v>13.83</v>
+        <v>7.67</v>
       </c>
       <c r="G13">
-        <v>9.67</v>
+        <v>25.2</v>
       </c>
       <c r="H13">
-        <v>2.84</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1528,25 +1414,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C14">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="D14">
-        <v>435234638.76</v>
+        <v>64808647.65</v>
       </c>
       <c r="E14">
-        <v>17.78</v>
+        <v>19.98</v>
       </c>
       <c r="F14">
-        <v>7.65</v>
+        <v>13.59</v>
       </c>
       <c r="G14">
-        <v>21.03</v>
+        <v>9.65</v>
       </c>
       <c r="H14">
-        <v>10.83</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1554,25 +1440,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>1969</v>
       </c>
       <c r="D15">
-        <v>113899589.89</v>
+        <v>698778022.66</v>
       </c>
       <c r="E15">
-        <v>17.46</v>
+        <v>19.95</v>
       </c>
       <c r="F15">
-        <v>8.59</v>
+        <v>11.66</v>
       </c>
       <c r="G15">
-        <v>8.039999999999999</v>
+        <v>11.15</v>
       </c>
       <c r="H15">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1580,25 +1466,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C16">
-        <v>2436</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>119063095.74</v>
+        <v>113753343.87</v>
       </c>
       <c r="E16">
-        <v>15.1</v>
+        <v>17.43</v>
       </c>
       <c r="F16">
-        <v>5.28</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="G16">
-        <v>17.02</v>
+        <v>7.89</v>
       </c>
       <c r="H16">
-        <v>29.52</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1606,25 +1492,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C17">
-        <v>3397</v>
+        <v>2453</v>
       </c>
       <c r="D17">
-        <v>300598115.32</v>
+        <v>121370329.7</v>
       </c>
       <c r="E17">
-        <v>14.57</v>
+        <v>14.94</v>
       </c>
       <c r="F17">
-        <v>4.29</v>
+        <v>5.31</v>
       </c>
       <c r="G17">
-        <v>31.81</v>
+        <v>17.51</v>
       </c>
       <c r="H17">
-        <v>27.71</v>
+        <v>29.01</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1632,25 +1518,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C18">
-        <v>16369</v>
+        <v>3407</v>
       </c>
       <c r="D18">
-        <v>844687157.87</v>
+        <v>300794260.29</v>
       </c>
       <c r="E18">
-        <v>13.74</v>
+        <v>14.39</v>
       </c>
       <c r="F18">
-        <v>4.16</v>
+        <v>4.27</v>
       </c>
       <c r="G18">
-        <v>23.04</v>
+        <v>31.96</v>
       </c>
       <c r="H18">
-        <v>25.19</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1658,25 +1544,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C19">
-        <v>1676</v>
+        <v>1873</v>
       </c>
       <c r="D19">
-        <v>711795432.23</v>
+        <v>746538533.1</v>
       </c>
       <c r="E19">
-        <v>13.66</v>
+        <v>13.44</v>
       </c>
       <c r="F19">
-        <v>4.99</v>
+        <v>4.95</v>
       </c>
       <c r="G19">
-        <v>59.79</v>
+        <v>59.91</v>
       </c>
       <c r="H19">
-        <v>42.8</v>
+        <v>42.46</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1684,25 +1570,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C20">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D20">
-        <v>8294766.97</v>
+        <v>8349563.15</v>
       </c>
       <c r="E20">
-        <v>13.28</v>
+        <v>13.39</v>
       </c>
       <c r="F20">
-        <v>6.03</v>
+        <v>6.13</v>
       </c>
       <c r="G20">
-        <v>25.8</v>
+        <v>26.56</v>
       </c>
       <c r="H20">
-        <v>17.02</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1710,25 +1596,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>16336</v>
       </c>
       <c r="D21">
-        <v>3607427.23</v>
+        <v>840462772.3200001</v>
       </c>
       <c r="E21">
-        <v>13.22</v>
+        <v>13.28</v>
       </c>
       <c r="F21">
-        <v>6.45</v>
+        <v>4.09</v>
       </c>
       <c r="G21">
-        <v>15.75</v>
+        <v>22.88</v>
       </c>
       <c r="H21">
-        <v>20.65</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1736,25 +1622,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C22">
-        <v>490</v>
+        <v>46</v>
       </c>
       <c r="D22">
-        <v>131761434.63</v>
+        <v>3619320.98</v>
       </c>
       <c r="E22">
-        <v>12.5</v>
+        <v>12.88</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>6.41</v>
       </c>
       <c r="G22">
-        <v>23.42</v>
+        <v>15.96</v>
       </c>
       <c r="H22">
-        <v>19.27</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1762,25 +1648,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C23">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="D23">
-        <v>68162067.58</v>
+        <v>132489539.43</v>
       </c>
       <c r="E23">
-        <v>12.03</v>
+        <v>12.42</v>
       </c>
       <c r="F23">
-        <v>5.71</v>
+        <v>5.01</v>
       </c>
       <c r="G23">
-        <v>25.2</v>
+        <v>23.71</v>
       </c>
       <c r="H23">
-        <v>24.01</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1788,25 +1674,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C24">
-        <v>6508</v>
+        <v>6509</v>
       </c>
       <c r="D24">
-        <v>1077129795.43</v>
+        <v>1077697872.59</v>
       </c>
       <c r="E24">
-        <v>11.73</v>
+        <v>11.6</v>
       </c>
       <c r="F24">
-        <v>4.19</v>
+        <v>4.17</v>
       </c>
       <c r="G24">
-        <v>20.03</v>
+        <v>20.15</v>
       </c>
       <c r="H24">
-        <v>19.71</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1814,25 +1700,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C25">
-        <v>12918</v>
+        <v>13102</v>
       </c>
       <c r="D25">
-        <v>1365313470.16</v>
+        <v>1462475238.19</v>
       </c>
       <c r="E25">
-        <v>11.32</v>
+        <v>11.27</v>
       </c>
       <c r="F25">
-        <v>6.71</v>
+        <v>6.74</v>
       </c>
       <c r="G25">
-        <v>17.91</v>
+        <v>18.18</v>
       </c>
       <c r="H25">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1840,25 +1726,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>41839034.3</v>
+        <v>41882779.86</v>
       </c>
       <c r="E26">
-        <v>11.13</v>
+        <v>11.18</v>
       </c>
       <c r="F26">
-        <v>7.68</v>
+        <v>7.79</v>
       </c>
       <c r="G26">
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
       <c r="H26">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1866,25 +1752,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C27">
-        <v>29548</v>
+        <v>466</v>
       </c>
       <c r="D27">
-        <v>1516678820.87</v>
+        <v>541561463.49</v>
       </c>
       <c r="E27">
-        <v>10.75</v>
+        <v>10.95</v>
       </c>
       <c r="F27">
-        <v>3.51</v>
+        <v>5.45</v>
       </c>
       <c r="G27">
-        <v>20.03</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H27">
-        <v>22.21</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1892,25 +1778,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C28">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="D28">
-        <v>246162457.34</v>
+        <v>245761884.86</v>
       </c>
       <c r="E28">
-        <v>10.72</v>
+        <v>10.74</v>
       </c>
       <c r="F28">
-        <v>4.11</v>
+        <v>4.15</v>
       </c>
       <c r="G28">
-        <v>21.12</v>
+        <v>21.57</v>
       </c>
       <c r="H28">
-        <v>19.95</v>
+        <v>19.78</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1918,25 +1804,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C29">
-        <v>147</v>
+        <v>705</v>
       </c>
       <c r="D29">
-        <v>24209885.5</v>
+        <v>103387822.21</v>
       </c>
       <c r="E29">
-        <v>10.62</v>
+        <v>10.51</v>
       </c>
       <c r="F29">
-        <v>4.42</v>
+        <v>5.01</v>
       </c>
       <c r="G29">
-        <v>18.41</v>
+        <v>31.96</v>
       </c>
       <c r="H29">
-        <v>30.11</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1944,25 +1830,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C30">
-        <v>656</v>
+        <v>244</v>
       </c>
       <c r="D30">
-        <v>93128510.72</v>
+        <v>89666909.43000001</v>
       </c>
       <c r="E30">
-        <v>10.57</v>
+        <v>10.35</v>
       </c>
       <c r="F30">
-        <v>4.99</v>
+        <v>9.85</v>
       </c>
       <c r="G30">
-        <v>31.46</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="H30">
-        <v>28.17</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1970,25 +1856,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C31">
-        <v>249</v>
+        <v>29507</v>
       </c>
       <c r="D31">
-        <v>89578865.98999999</v>
+        <v>1514582306.51</v>
       </c>
       <c r="E31">
-        <v>10.42</v>
+        <v>10.28</v>
       </c>
       <c r="F31">
-        <v>9.84</v>
+        <v>3.45</v>
       </c>
       <c r="G31">
-        <v>8.31</v>
+        <v>19.85</v>
       </c>
       <c r="H31">
-        <v>3.49</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1996,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C32">
-        <v>460</v>
+        <v>5003</v>
       </c>
       <c r="D32">
-        <v>537554806.34</v>
+        <v>1573729418.03</v>
       </c>
       <c r="E32">
-        <v>10.41</v>
+        <v>10.23</v>
       </c>
       <c r="F32">
-        <v>5.19</v>
+        <v>4.02</v>
       </c>
       <c r="G32">
-        <v>7.65</v>
+        <v>20.63</v>
       </c>
       <c r="H32">
-        <v>6.07</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2022,25 +1908,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C33">
-        <v>4995</v>
+        <v>1598</v>
       </c>
       <c r="D33">
-        <v>1567920049.37</v>
+        <v>50353741.77</v>
       </c>
       <c r="E33">
-        <v>10.24</v>
+        <v>9.98</v>
       </c>
       <c r="F33">
-        <v>3.99</v>
+        <v>4.4</v>
       </c>
       <c r="G33">
-        <v>20.27</v>
+        <v>27.8</v>
       </c>
       <c r="H33">
-        <v>20.05</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2048,25 +1934,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C34">
-        <v>1600</v>
+        <v>563</v>
       </c>
       <c r="D34">
-        <v>50403696.07</v>
+        <v>77112003.14</v>
       </c>
       <c r="E34">
-        <v>10.13</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F34">
-        <v>4.44</v>
+        <v>3.5</v>
       </c>
       <c r="G34">
-        <v>27.76</v>
+        <v>21.06</v>
       </c>
       <c r="H34">
-        <v>23.79</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2074,25 +1960,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C35">
-        <v>304</v>
+        <v>27049</v>
       </c>
       <c r="D35">
-        <v>98412237.20999999</v>
+        <v>3870765580.2</v>
       </c>
       <c r="E35">
-        <v>9.94</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F35">
-        <v>3.73</v>
+        <v>4.1</v>
       </c>
       <c r="G35">
-        <v>28.04</v>
+        <v>26.2</v>
       </c>
       <c r="H35">
-        <v>28.47</v>
+        <v>25.22</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2100,25 +1986,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C36">
-        <v>27018</v>
+        <v>28433</v>
       </c>
       <c r="D36">
-        <v>3864000133.16</v>
+        <v>5030982010.89</v>
       </c>
       <c r="E36">
-        <v>9.92</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F36">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="G36">
-        <v>26.27</v>
+        <v>40.15</v>
       </c>
       <c r="H36">
-        <v>25.42</v>
+        <v>34.68</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2126,25 +2012,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C37">
-        <v>28482</v>
+        <v>3509</v>
       </c>
       <c r="D37">
-        <v>5037286800.32</v>
+        <v>373591587.47</v>
       </c>
       <c r="E37">
-        <v>9.91</v>
+        <v>9.58</v>
       </c>
       <c r="F37">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="G37">
-        <v>40.37</v>
+        <v>18.41</v>
       </c>
       <c r="H37">
-        <v>34.94</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2152,25 +2038,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C38">
-        <v>3117</v>
+        <v>2588</v>
       </c>
       <c r="D38">
-        <v>143529571.28</v>
+        <v>485626586.02</v>
       </c>
       <c r="E38">
-        <v>9.77</v>
+        <v>9.41</v>
       </c>
       <c r="F38">
-        <v>4.24</v>
+        <v>3.62</v>
       </c>
       <c r="G38">
-        <v>21.62</v>
+        <v>24.04</v>
       </c>
       <c r="H38">
-        <v>19.72</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2178,25 +2064,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C39">
-        <v>2594</v>
+        <v>2033</v>
       </c>
       <c r="D39">
-        <v>488882354.8</v>
+        <v>538483726.6900001</v>
       </c>
       <c r="E39">
-        <v>9.74</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F39">
-        <v>3.79</v>
+        <v>4.06</v>
       </c>
       <c r="G39">
-        <v>25.05</v>
+        <v>39.4</v>
       </c>
       <c r="H39">
-        <v>26.88</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2204,25 +2090,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C40">
-        <v>2029</v>
+        <v>52467</v>
       </c>
       <c r="D40">
-        <v>543899172.6900001</v>
+        <v>3257163159.08</v>
       </c>
       <c r="E40">
-        <v>9.65</v>
+        <v>9.34</v>
       </c>
       <c r="F40">
-        <v>4.1</v>
+        <v>3.96</v>
       </c>
       <c r="G40">
-        <v>39.43</v>
+        <v>41.33</v>
       </c>
       <c r="H40">
-        <v>33.86</v>
+        <v>35.84</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2230,25 +2116,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C41">
-        <v>552</v>
+        <v>1254</v>
       </c>
       <c r="D41">
-        <v>73938031.93000001</v>
+        <v>40367400.99</v>
       </c>
       <c r="E41">
-        <v>9.609999999999999</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F41">
-        <v>3.39</v>
+        <v>4.82</v>
       </c>
       <c r="G41">
-        <v>20.11</v>
+        <v>23.38</v>
       </c>
       <c r="H41">
-        <v>22.77</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2256,25 +2142,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C42">
-        <v>52607</v>
+        <v>231</v>
       </c>
       <c r="D42">
-        <v>3267790689.1</v>
+        <v>16444854.4</v>
       </c>
       <c r="E42">
-        <v>9.58</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F42">
-        <v>4.03</v>
+        <v>4.77</v>
       </c>
       <c r="G42">
-        <v>41.63</v>
+        <v>23.18</v>
       </c>
       <c r="H42">
-        <v>36.1</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2282,25 +2168,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C43">
-        <v>5803</v>
+        <v>676</v>
       </c>
       <c r="D43">
-        <v>1607814620.33</v>
+        <v>64129375.1</v>
       </c>
       <c r="E43">
-        <v>9.35</v>
+        <v>9.18</v>
       </c>
       <c r="F43">
-        <v>3.49</v>
+        <v>3.11</v>
       </c>
       <c r="G43">
-        <v>23.15</v>
+        <v>20.88</v>
       </c>
       <c r="H43">
-        <v>25.08</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2308,25 +2194,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C44">
-        <v>2812</v>
+        <v>311</v>
       </c>
       <c r="D44">
-        <v>1121885818.57</v>
+        <v>14420952.02</v>
       </c>
       <c r="E44">
-        <v>9.300000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F44">
-        <v>3.98</v>
+        <v>4.45</v>
       </c>
       <c r="G44">
-        <v>38.92</v>
+        <v>24.35</v>
       </c>
       <c r="H44">
-        <v>34.46</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2334,25 +2220,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C45">
-        <v>3512</v>
+        <v>90</v>
       </c>
       <c r="D45">
-        <v>370255242</v>
+        <v>11341449.16</v>
       </c>
       <c r="E45">
-        <v>9.289999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F45">
-        <v>3.89</v>
+        <v>4.92</v>
       </c>
       <c r="G45">
-        <v>17.43</v>
+        <v>23.36</v>
       </c>
       <c r="H45">
-        <v>18.7</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2360,25 +2246,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C46">
-        <v>670</v>
+        <v>1652</v>
       </c>
       <c r="D46">
-        <v>64024447.42</v>
+        <v>171996480.79</v>
       </c>
       <c r="E46">
-        <v>9.279999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F46">
-        <v>3.12</v>
+        <v>3.8</v>
       </c>
       <c r="G46">
-        <v>20.76</v>
+        <v>27.75</v>
       </c>
       <c r="H46">
-        <v>25.59</v>
+        <v>26.56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2386,25 +2272,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C47">
-        <v>814</v>
+        <v>888</v>
       </c>
       <c r="D47">
-        <v>49373046.45</v>
+        <v>64748203.61</v>
       </c>
       <c r="E47">
-        <v>9.27</v>
+        <v>9</v>
       </c>
       <c r="F47">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="G47">
-        <v>21.69</v>
+        <v>21.13</v>
       </c>
       <c r="H47">
-        <v>25.92</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2412,25 +2298,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C48">
-        <v>197</v>
+        <v>1018</v>
       </c>
       <c r="D48">
-        <v>13102896.34</v>
+        <v>30307856.84</v>
       </c>
       <c r="E48">
-        <v>9.26</v>
+        <v>8.93</v>
       </c>
       <c r="F48">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="G48">
-        <v>17.52</v>
+        <v>23.85</v>
       </c>
       <c r="H48">
-        <v>19.46</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2438,25 +2324,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C49">
-        <v>210</v>
+        <v>2169</v>
       </c>
       <c r="D49">
-        <v>14035838.57</v>
+        <v>1360251603.98</v>
       </c>
       <c r="E49">
-        <v>9.199999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F49">
-        <v>4.73</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="G49">
-        <v>22.77</v>
+        <v>11.59</v>
       </c>
       <c r="H49">
-        <v>18.21</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2464,25 +2350,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C50">
-        <v>162</v>
+        <v>2576</v>
       </c>
       <c r="D50">
-        <v>190241559.8</v>
+        <v>56903240.4</v>
       </c>
       <c r="E50">
-        <v>9.02</v>
+        <v>8.81</v>
       </c>
       <c r="F50">
-        <v>3.86</v>
+        <v>3.68</v>
       </c>
       <c r="G50">
-        <v>22.53</v>
+        <v>19.97</v>
       </c>
       <c r="H50">
-        <v>38.14</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2490,25 +2376,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C51">
-        <v>5542</v>
+        <v>865</v>
       </c>
       <c r="D51">
-        <v>837206619.7</v>
+        <v>425618886.37</v>
       </c>
       <c r="E51">
-        <v>9.02</v>
+        <v>8.68</v>
       </c>
       <c r="F51">
-        <v>3.54</v>
+        <v>4.28</v>
       </c>
       <c r="G51">
-        <v>18.67</v>
+        <v>19.5</v>
       </c>
       <c r="H51">
-        <v>21.83</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2516,25 +2402,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C52">
-        <v>1562</v>
+        <v>31893</v>
       </c>
       <c r="D52">
-        <v>162512694.67</v>
+        <v>2930267948.37</v>
       </c>
       <c r="E52">
-        <v>8.970000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F52">
-        <v>3.74</v>
+        <v>3.26</v>
       </c>
       <c r="G52">
-        <v>27.02</v>
+        <v>24.35</v>
       </c>
       <c r="H52">
-        <v>26.78</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2542,25 +2428,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C53">
-        <v>306</v>
+        <v>521</v>
       </c>
       <c r="D53">
-        <v>14903489.55</v>
+        <v>200921156.14</v>
       </c>
       <c r="E53">
-        <v>8.93</v>
+        <v>8.59</v>
       </c>
       <c r="F53">
-        <v>4.3</v>
+        <v>3.52</v>
       </c>
       <c r="G53">
-        <v>23.24</v>
+        <v>32.28</v>
       </c>
       <c r="H53">
-        <v>20.37</v>
+        <v>33.12</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2568,25 +2454,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C54">
-        <v>1201</v>
+        <v>57</v>
       </c>
       <c r="D54">
-        <v>37476060.53</v>
+        <v>2419393.31</v>
       </c>
       <c r="E54">
-        <v>8.890000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="F54">
-        <v>4.6</v>
+        <v>3.63</v>
       </c>
       <c r="G54">
-        <v>21.88</v>
+        <v>36.49</v>
       </c>
       <c r="H54">
-        <v>18.42</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2594,25 +2480,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C55">
-        <v>90</v>
+        <v>20956</v>
       </c>
       <c r="D55">
-        <v>10958152.87</v>
+        <v>2114775914.82</v>
       </c>
       <c r="E55">
-        <v>8.859999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="F55">
-        <v>4.79</v>
+        <v>3.89</v>
       </c>
       <c r="G55">
-        <v>22.42</v>
+        <v>22.09</v>
       </c>
       <c r="H55">
-        <v>18.5</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2620,25 +2506,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C56">
-        <v>510</v>
+        <v>21372</v>
       </c>
       <c r="D56">
-        <v>197775841.9</v>
+        <v>5187847629.75</v>
       </c>
       <c r="E56">
-        <v>8.6</v>
+        <v>8.16</v>
       </c>
       <c r="F56">
-        <v>3.49</v>
+        <v>3.83</v>
       </c>
       <c r="G56">
-        <v>31.69</v>
+        <v>20.56</v>
       </c>
       <c r="H56">
-        <v>33.4</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2646,25 +2532,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C57">
-        <v>865</v>
+        <v>4755</v>
       </c>
       <c r="D57">
-        <v>479216720.91</v>
+        <v>441375578.41</v>
       </c>
       <c r="E57">
-        <v>8.44</v>
+        <v>8.06</v>
       </c>
       <c r="F57">
-        <v>4.13</v>
+        <v>3.08</v>
       </c>
       <c r="G57">
-        <v>18.54</v>
+        <v>20.15</v>
       </c>
       <c r="H57">
-        <v>18.53</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2672,25 +2558,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D58">
-        <v>2419393.31</v>
+        <v>25468013.42</v>
       </c>
       <c r="E58">
-        <v>8.43</v>
+        <v>8.01</v>
       </c>
       <c r="F58">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="G58">
-        <v>36.49</v>
+        <v>17.72</v>
       </c>
       <c r="H58">
-        <v>35.22</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2698,25 +2584,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C59">
-        <v>2575</v>
+        <v>10486</v>
       </c>
       <c r="D59">
-        <v>55204028.19</v>
+        <v>690557612.55</v>
       </c>
       <c r="E59">
-        <v>8.33</v>
+        <v>7.92</v>
       </c>
       <c r="F59">
-        <v>3.46</v>
+        <v>3.69</v>
       </c>
       <c r="G59">
-        <v>18.33</v>
+        <v>20.09</v>
       </c>
       <c r="H59">
-        <v>22.34</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2724,25 +2610,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C60">
-        <v>21370</v>
+        <v>19398</v>
       </c>
       <c r="D60">
-        <v>5182644968.43</v>
+        <v>6349164446.88</v>
       </c>
       <c r="E60">
-        <v>8.26</v>
+        <v>7.92</v>
       </c>
       <c r="F60">
-        <v>3.85</v>
+        <v>3.23</v>
       </c>
       <c r="G60">
-        <v>20.46</v>
+        <v>20.56</v>
       </c>
       <c r="H60">
-        <v>20.97</v>
+        <v>24.82</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2750,25 +2636,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C61">
-        <v>19409</v>
+        <v>1483</v>
       </c>
       <c r="D61">
-        <v>6357275735.35</v>
+        <v>57304286.88</v>
       </c>
       <c r="E61">
-        <v>8.17</v>
+        <v>7.89</v>
       </c>
       <c r="F61">
-        <v>3.28</v>
+        <v>3.87</v>
       </c>
       <c r="G61">
-        <v>20.77</v>
+        <v>19.43</v>
       </c>
       <c r="H61">
-        <v>25.01</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2776,25 +2662,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C62">
-        <v>3318</v>
+        <v>1196</v>
       </c>
       <c r="D62">
-        <v>170524135.2</v>
+        <v>1556710600.87</v>
       </c>
       <c r="E62">
-        <v>8.17</v>
+        <v>7.78</v>
       </c>
       <c r="F62">
-        <v>3.24</v>
+        <v>2.83</v>
       </c>
       <c r="G62">
-        <v>17.14</v>
+        <v>20.04</v>
       </c>
       <c r="H62">
-        <v>21.54</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2802,25 +2688,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C63">
-        <v>20952</v>
+        <v>1536</v>
       </c>
       <c r="D63">
-        <v>2098904654.05</v>
+        <v>241952888.59</v>
       </c>
       <c r="E63">
-        <v>8.16</v>
+        <v>7.74</v>
       </c>
       <c r="F63">
-        <v>3.81</v>
+        <v>3.95</v>
       </c>
       <c r="G63">
-        <v>21.38</v>
+        <v>21.65</v>
       </c>
       <c r="H63">
-        <v>21.58</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2828,25 +2714,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="D64">
-        <v>25361442.48</v>
+        <v>59953039.32</v>
       </c>
       <c r="E64">
-        <v>8.01</v>
+        <v>7.66</v>
       </c>
       <c r="F64">
-        <v>3.47</v>
+        <v>3.06</v>
       </c>
       <c r="G64">
-        <v>17.38</v>
+        <v>20.41</v>
       </c>
       <c r="H64">
-        <v>20.33</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2854,25 +2740,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C65">
-        <v>309</v>
+        <v>7577</v>
       </c>
       <c r="D65">
-        <v>74229480.02</v>
+        <v>5168671548.89</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>7.63</v>
       </c>
       <c r="F65">
-        <v>3.04</v>
+        <v>5.29</v>
       </c>
       <c r="G65">
-        <v>19.06</v>
+        <v>7.43</v>
       </c>
       <c r="H65">
-        <v>24.96</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2880,25 +2766,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C66">
-        <v>1016</v>
+        <v>340</v>
       </c>
       <c r="D66">
-        <v>73413211.58</v>
+        <v>439463998.55</v>
       </c>
       <c r="E66">
-        <v>7.98</v>
+        <v>7.6</v>
       </c>
       <c r="F66">
-        <v>5.55</v>
+        <v>2.86</v>
       </c>
       <c r="G66">
-        <v>24.6</v>
+        <v>17.96</v>
       </c>
       <c r="H66">
-        <v>17.51</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2906,25 +2792,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C67">
-        <v>1485</v>
+        <v>225</v>
       </c>
       <c r="D67">
-        <v>57236759.04</v>
+        <v>8177300.54</v>
       </c>
       <c r="E67">
-        <v>7.97</v>
+        <v>7.58</v>
       </c>
       <c r="F67">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="G67">
-        <v>19.31</v>
+        <v>18.86</v>
       </c>
       <c r="H67">
-        <v>20.06</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2932,25 +2818,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C68">
-        <v>1510</v>
+        <v>714</v>
       </c>
       <c r="D68">
-        <v>235494389.66</v>
+        <v>332058992</v>
       </c>
       <c r="E68">
-        <v>7.82</v>
+        <v>7.52</v>
       </c>
       <c r="F68">
-        <v>3.96</v>
+        <v>3.64</v>
       </c>
       <c r="G68">
-        <v>21.51</v>
+        <v>18.63</v>
       </c>
       <c r="H68">
-        <v>21.44</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2958,25 +2844,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C69">
-        <v>1195</v>
+        <v>78</v>
       </c>
       <c r="D69">
-        <v>1553154283.02</v>
+        <v>36722208.33</v>
       </c>
       <c r="E69">
-        <v>7.81</v>
+        <v>7.46</v>
       </c>
       <c r="F69">
-        <v>2.82</v>
+        <v>3.59</v>
       </c>
       <c r="G69">
-        <v>19.76</v>
+        <v>12.39</v>
       </c>
       <c r="H69">
-        <v>27.13</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2984,25 +2870,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C70">
-        <v>4754</v>
+        <v>28700</v>
       </c>
       <c r="D70">
-        <v>436099851.22</v>
+        <v>5063373756.59</v>
       </c>
       <c r="E70">
-        <v>7.77</v>
+        <v>7.45</v>
       </c>
       <c r="F70">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G70">
-        <v>18.99</v>
+        <v>18.87</v>
       </c>
       <c r="H70">
-        <v>24.97</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3010,25 +2896,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C71">
-        <v>10479</v>
+        <v>1897</v>
       </c>
       <c r="D71">
-        <v>683365126.95</v>
+        <v>339322718.8</v>
       </c>
       <c r="E71">
-        <v>7.76</v>
+        <v>7.42</v>
       </c>
       <c r="F71">
-        <v>3.59</v>
+        <v>3.24</v>
       </c>
       <c r="G71">
-        <v>19.26</v>
+        <v>19.45</v>
       </c>
       <c r="H71">
-        <v>21.96</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3036,25 +2922,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C72">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="D72">
-        <v>26376910.01</v>
+        <v>22299943.48</v>
       </c>
       <c r="E72">
-        <v>7.65</v>
+        <v>7.41</v>
       </c>
       <c r="F72">
-        <v>3.46</v>
+        <v>4.06</v>
       </c>
       <c r="G72">
-        <v>19.81</v>
+        <v>19.83</v>
       </c>
       <c r="H72">
-        <v>22.19</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3062,25 +2948,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C73">
-        <v>712</v>
+        <v>536</v>
       </c>
       <c r="D73">
-        <v>331841128.12</v>
+        <v>1207574969.4</v>
       </c>
       <c r="E73">
-        <v>7.62</v>
+        <v>7.33</v>
       </c>
       <c r="F73">
-        <v>3.66</v>
+        <v>2.96</v>
       </c>
       <c r="G73">
-        <v>18.56</v>
+        <v>19.53</v>
       </c>
       <c r="H73">
-        <v>21.07</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3088,25 +2974,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C74">
-        <v>14852</v>
+        <v>64468</v>
       </c>
       <c r="D74">
-        <v>3010794191.64</v>
+        <v>1738720310.46</v>
       </c>
       <c r="E74">
-        <v>7.62</v>
+        <v>7.2</v>
       </c>
       <c r="F74">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="G74">
-        <v>19.2</v>
+        <v>22.2</v>
       </c>
       <c r="H74">
-        <v>25.18</v>
+        <v>27.89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3114,25 +3000,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C75">
-        <v>337</v>
+        <v>12602</v>
       </c>
       <c r="D75">
-        <v>410539158.95</v>
+        <v>366880589.08</v>
       </c>
       <c r="E75">
-        <v>7.58</v>
+        <v>7.03</v>
       </c>
       <c r="F75">
-        <v>2.83</v>
+        <v>3.84</v>
       </c>
       <c r="G75">
-        <v>17.58</v>
+        <v>17.38</v>
       </c>
       <c r="H75">
-        <v>24.64</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3140,25 +3026,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C76">
-        <v>80</v>
+        <v>2630</v>
       </c>
       <c r="D76">
-        <v>36638255.57</v>
+        <v>1948221896.26</v>
       </c>
       <c r="E76">
-        <v>7.52</v>
+        <v>7.02</v>
       </c>
       <c r="F76">
-        <v>3.58</v>
+        <v>2.81</v>
       </c>
       <c r="G76">
-        <v>12.14</v>
+        <v>19.88</v>
       </c>
       <c r="H76">
-        <v>24.4</v>
+        <v>27.55</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3166,25 +3052,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C77">
-        <v>7567</v>
+        <v>1240</v>
       </c>
       <c r="D77">
-        <v>5181560354.71</v>
+        <v>159489934.67</v>
       </c>
       <c r="E77">
-        <v>7.5</v>
+        <v>6.97</v>
       </c>
       <c r="F77">
-        <v>5.17</v>
+        <v>4.03</v>
       </c>
       <c r="G77">
-        <v>7.16</v>
+        <v>17.13</v>
       </c>
       <c r="H77">
-        <v>5.82</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3192,25 +3078,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C78">
-        <v>572</v>
+        <v>2415</v>
       </c>
       <c r="D78">
-        <v>19482027.2</v>
+        <v>59069699.12</v>
       </c>
       <c r="E78">
-        <v>7.5</v>
+        <v>6.95</v>
       </c>
       <c r="F78">
-        <v>2.98</v>
+        <v>3.41</v>
       </c>
       <c r="G78">
-        <v>17.14</v>
+        <v>17.17</v>
       </c>
       <c r="H78">
-        <v>22.6</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3218,25 +3104,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C79">
-        <v>64581</v>
+        <v>1122</v>
       </c>
       <c r="D79">
-        <v>1754994332.44</v>
+        <v>112049988.33</v>
       </c>
       <c r="E79">
-        <v>7.46</v>
+        <v>6.92</v>
       </c>
       <c r="F79">
-        <v>3.04</v>
+        <v>4.52</v>
       </c>
       <c r="G79">
-        <v>23.01</v>
+        <v>10.9</v>
       </c>
       <c r="H79">
-        <v>28.06</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3244,25 +3130,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C80">
-        <v>185</v>
+        <v>28541</v>
       </c>
       <c r="D80">
-        <v>59475366.02</v>
+        <v>991084545.09</v>
       </c>
       <c r="E80">
-        <v>7.46</v>
+        <v>6.74</v>
       </c>
       <c r="F80">
-        <v>2.96</v>
+        <v>3.59</v>
       </c>
       <c r="G80">
-        <v>19.48</v>
+        <v>19.3</v>
       </c>
       <c r="H80">
-        <v>25.2</v>
+        <v>20.55</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3270,25 +3156,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C81">
-        <v>609</v>
+        <v>152</v>
       </c>
       <c r="D81">
-        <v>22143250.14</v>
+        <v>16390979.77</v>
       </c>
       <c r="E81">
-        <v>7.38</v>
+        <v>6.65</v>
       </c>
       <c r="F81">
-        <v>4.01</v>
+        <v>2.79</v>
       </c>
       <c r="G81">
-        <v>19.38</v>
+        <v>19.58</v>
       </c>
       <c r="H81">
-        <v>18.99</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3296,25 +3182,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C82">
-        <v>1880</v>
+        <v>1975</v>
       </c>
       <c r="D82">
-        <v>333644938.47</v>
+        <v>135269622.25</v>
       </c>
       <c r="E82">
-        <v>7.35</v>
+        <v>6.6</v>
       </c>
       <c r="F82">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="G82">
-        <v>18.9</v>
+        <v>17.38</v>
       </c>
       <c r="H82">
-        <v>23.82</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3322,25 +3208,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C83">
-        <v>531</v>
+        <v>1898</v>
       </c>
       <c r="D83">
-        <v>1202599161.96</v>
+        <v>173454215.72</v>
       </c>
       <c r="E83">
-        <v>7.34</v>
+        <v>6.52</v>
       </c>
       <c r="F83">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G83">
-        <v>19.22</v>
+        <v>14.98</v>
       </c>
       <c r="H83">
-        <v>25.37</v>
+        <v>21.61</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3348,25 +3234,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C84">
-        <v>2626</v>
+        <v>9439</v>
       </c>
       <c r="D84">
-        <v>1953572929.19</v>
+        <v>327898929.25</v>
       </c>
       <c r="E84">
-        <v>7.25</v>
+        <v>6.51</v>
       </c>
       <c r="F84">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="G84">
-        <v>20.21</v>
+        <v>20.66</v>
       </c>
       <c r="H84">
-        <v>27.76</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3374,25 +3260,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C85">
-        <v>13634</v>
+        <v>16137</v>
       </c>
       <c r="D85">
-        <v>2262049939.96</v>
+        <v>593537258.98</v>
       </c>
       <c r="E85">
-        <v>7.21</v>
+        <v>6.43</v>
       </c>
       <c r="F85">
-        <v>2.66</v>
+        <v>3.03</v>
       </c>
       <c r="G85">
-        <v>17.95</v>
+        <v>17.58</v>
       </c>
       <c r="H85">
-        <v>26.53</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3400,25 +3286,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C86">
-        <v>390</v>
+        <v>105</v>
       </c>
       <c r="D86">
-        <v>86507304.48</v>
+        <v>48962911.4</v>
       </c>
       <c r="E86">
-        <v>6.99</v>
+        <v>6.36</v>
       </c>
       <c r="F86">
-        <v>4.34</v>
+        <v>3.02</v>
       </c>
       <c r="G86">
-        <v>22.49</v>
+        <v>18.28</v>
       </c>
       <c r="H86">
-        <v>21.02</v>
+        <v>24.73</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3426,25 +3312,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C87">
-        <v>2382</v>
+        <v>667</v>
       </c>
       <c r="D87">
-        <v>57076624.84</v>
+        <v>140730286.27</v>
       </c>
       <c r="E87">
-        <v>6.99</v>
+        <v>6.29</v>
       </c>
       <c r="F87">
-        <v>3.4</v>
+        <v>3.06</v>
       </c>
       <c r="G87">
-        <v>16.96</v>
+        <v>16.6</v>
       </c>
       <c r="H87">
-        <v>20.98</v>
+        <v>21.24</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3452,25 +3338,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C88">
-        <v>99</v>
+        <v>2151</v>
       </c>
       <c r="D88">
-        <v>18826391.95</v>
+        <v>78423994.73</v>
       </c>
       <c r="E88">
-        <v>6.98</v>
+        <v>6.11</v>
       </c>
       <c r="F88">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="G88">
-        <v>11.75</v>
+        <v>13.81</v>
       </c>
       <c r="H88">
-        <v>22.11</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3478,25 +3364,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C89">
-        <v>1238</v>
+        <v>1663</v>
       </c>
       <c r="D89">
-        <v>160043704.24</v>
+        <v>155077844.51</v>
       </c>
       <c r="E89">
-        <v>6.95</v>
+        <v>5.84</v>
       </c>
       <c r="F89">
-        <v>3.98</v>
+        <v>2.57</v>
       </c>
       <c r="G89">
-        <v>16.74</v>
+        <v>13.1</v>
       </c>
       <c r="H89">
-        <v>17.56</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3504,25 +3390,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C90">
-        <v>12616</v>
+        <v>753</v>
       </c>
       <c r="D90">
-        <v>361122952.86</v>
+        <v>26202333.61</v>
       </c>
       <c r="E90">
-        <v>6.9</v>
+        <v>5.67</v>
       </c>
       <c r="F90">
-        <v>3.74</v>
+        <v>4.01</v>
       </c>
       <c r="G90">
-        <v>16.68</v>
+        <v>16.29</v>
       </c>
       <c r="H90">
-        <v>18.46</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3530,25 +3416,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C91">
-        <v>1125</v>
+        <v>6541</v>
       </c>
       <c r="D91">
-        <v>112451159.42</v>
+        <v>353613848.4</v>
       </c>
       <c r="E91">
-        <v>6.86</v>
+        <v>5.5</v>
       </c>
       <c r="F91">
-        <v>4.44</v>
+        <v>2.99</v>
       </c>
       <c r="G91">
-        <v>10.6</v>
+        <v>14.67</v>
       </c>
       <c r="H91">
-        <v>9.75</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3556,25 +3442,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C92">
-        <v>463</v>
+        <v>238</v>
       </c>
       <c r="D92">
-        <v>16814728.31</v>
+        <v>187226142.84</v>
       </c>
       <c r="E92">
-        <v>6.84</v>
+        <v>5.4</v>
       </c>
       <c r="F92">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="G92">
-        <v>18.64</v>
+        <v>20.54</v>
       </c>
       <c r="H92">
-        <v>21.3</v>
+        <v>25.34</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3582,25 +3468,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C93">
-        <v>152</v>
+        <v>755</v>
       </c>
       <c r="D93">
-        <v>50381011.21</v>
+        <v>54476316.79</v>
       </c>
       <c r="E93">
-        <v>6.72</v>
+        <v>5.37</v>
       </c>
       <c r="F93">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="G93">
-        <v>19.21</v>
+        <v>16.36</v>
       </c>
       <c r="H93">
-        <v>25.5</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3608,25 +3494,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C94">
-        <v>139</v>
+        <v>622</v>
       </c>
       <c r="D94">
-        <v>14934666.6</v>
+        <v>344119227.31</v>
       </c>
       <c r="E94">
-        <v>6.69</v>
+        <v>5.3</v>
       </c>
       <c r="F94">
-        <v>2.76</v>
+        <v>2.3</v>
       </c>
       <c r="G94">
-        <v>16.99</v>
+        <v>14.39</v>
       </c>
       <c r="H94">
-        <v>24.18</v>
+        <v>24.17</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3634,25 +3520,25 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C95">
-        <v>28593</v>
+        <v>448</v>
       </c>
       <c r="D95">
-        <v>987300938.73</v>
+        <v>110646759.43</v>
       </c>
       <c r="E95">
-        <v>6.67</v>
+        <v>4.98</v>
       </c>
       <c r="F95">
-        <v>3.52</v>
+        <v>2.83</v>
       </c>
       <c r="G95">
-        <v>18.76</v>
+        <v>22.38</v>
       </c>
       <c r="H95">
-        <v>20.72</v>
+        <v>33.16</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3660,25 +3546,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C96">
-        <v>150</v>
+        <v>3115</v>
       </c>
       <c r="D96">
-        <v>16402464.04</v>
+        <v>252824944.91</v>
       </c>
       <c r="E96">
-        <v>6.64</v>
+        <v>4.88</v>
       </c>
       <c r="F96">
-        <v>2.76</v>
+        <v>1.96</v>
       </c>
       <c r="G96">
-        <v>19.19</v>
+        <v>11.23</v>
       </c>
       <c r="H96">
-        <v>27.32</v>
+        <v>24.01</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3686,25 +3572,25 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C97">
-        <v>16179</v>
+        <v>45423</v>
       </c>
       <c r="D97">
-        <v>592423611.78</v>
+        <v>2268031003.06</v>
       </c>
       <c r="E97">
-        <v>6.53</v>
+        <v>4.67</v>
       </c>
       <c r="F97">
-        <v>3.06</v>
+        <v>2.45</v>
       </c>
       <c r="G97">
-        <v>17.57</v>
+        <v>13.88</v>
       </c>
       <c r="H97">
-        <v>21.96</v>
+        <v>21.45</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3712,25 +3598,25 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C98">
-        <v>127</v>
+        <v>853</v>
       </c>
       <c r="D98">
-        <v>42105246.76</v>
+        <v>260080576.6</v>
       </c>
       <c r="E98">
-        <v>6.49</v>
+        <v>4.54</v>
       </c>
       <c r="F98">
-        <v>3.81</v>
+        <v>2.46</v>
       </c>
       <c r="G98">
-        <v>12.97</v>
+        <v>14.76</v>
       </c>
       <c r="H98">
-        <v>16.08</v>
+        <v>24.45</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3738,25 +3624,25 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C99">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D99">
-        <v>290824.95</v>
+        <v>11196803.67</v>
       </c>
       <c r="E99">
-        <v>6.48</v>
+        <v>4.53</v>
       </c>
       <c r="F99">
-        <v>3.53</v>
+        <v>2.57</v>
       </c>
       <c r="G99">
-        <v>1.07</v>
+        <v>10.91</v>
       </c>
       <c r="H99">
-        <v>3.42</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3764,25 +3650,25 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C100">
-        <v>9421</v>
+        <v>379</v>
       </c>
       <c r="D100">
-        <v>322699086.58</v>
+        <v>622263718.4400001</v>
       </c>
       <c r="E100">
-        <v>6.46</v>
+        <v>4.24</v>
       </c>
       <c r="F100">
-        <v>3.69</v>
+        <v>2.15</v>
       </c>
       <c r="G100">
-        <v>20.07</v>
+        <v>20.6</v>
       </c>
       <c r="H100">
-        <v>22.47</v>
+        <v>37.11</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3790,25 +3676,25 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C101">
-        <v>1974</v>
+        <v>413</v>
       </c>
       <c r="D101">
-        <v>134145426.08</v>
+        <v>4084069.61</v>
       </c>
       <c r="E101">
-        <v>6.41</v>
+        <v>3.8</v>
       </c>
       <c r="F101">
-        <v>3.08</v>
+        <v>1.71</v>
       </c>
       <c r="G101">
-        <v>16.55</v>
+        <v>13.2</v>
       </c>
       <c r="H101">
-        <v>20.88</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3816,25 +3702,25 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C102">
-        <v>89</v>
+        <v>1420</v>
       </c>
       <c r="D102">
-        <v>8934138.98</v>
+        <v>1293503249.45</v>
       </c>
       <c r="E102">
-        <v>6.38</v>
+        <v>3.63</v>
       </c>
       <c r="F102">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="G102">
-        <v>14.85</v>
+        <v>4.85</v>
       </c>
       <c r="H102">
-        <v>24.21</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3842,25 +3728,25 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C103">
-        <v>149</v>
+        <v>438</v>
       </c>
       <c r="D103">
-        <v>5062220.74</v>
+        <v>525929819.02</v>
       </c>
       <c r="E103">
-        <v>6.37</v>
+        <v>3.43</v>
       </c>
       <c r="F103">
-        <v>2.87</v>
+        <v>1.65</v>
       </c>
       <c r="G103">
-        <v>15.14</v>
+        <v>10.02</v>
       </c>
       <c r="H103">
-        <v>21.91</v>
+        <v>25.47</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3868,25 +3754,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C104">
-        <v>1901</v>
+        <v>114</v>
       </c>
       <c r="D104">
-        <v>171536667.04</v>
+        <v>4381496.73</v>
       </c>
       <c r="E104">
-        <v>6.34</v>
+        <v>3.29</v>
       </c>
       <c r="F104">
-        <v>2.78</v>
+        <v>3.55</v>
       </c>
       <c r="G104">
-        <v>14.23</v>
+        <v>5.52</v>
       </c>
       <c r="H104">
-        <v>21.78</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3894,25 +3780,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C105">
-        <v>664</v>
+        <v>289</v>
       </c>
       <c r="D105">
-        <v>127532092.9</v>
+        <v>69224586.43000001</v>
       </c>
       <c r="E105">
-        <v>6.28</v>
+        <v>3.12</v>
       </c>
       <c r="F105">
-        <v>3.03</v>
+        <v>1.38</v>
       </c>
       <c r="G105">
-        <v>16.29</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H105">
-        <v>21.42</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3920,25 +3806,25 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C106">
-        <v>447</v>
+        <v>49</v>
       </c>
       <c r="D106">
-        <v>132009916.07</v>
+        <v>4466586.32</v>
       </c>
       <c r="E106">
-        <v>6.14</v>
+        <v>2.99</v>
       </c>
       <c r="F106">
-        <v>3.39</v>
+        <v>1.41</v>
       </c>
       <c r="G106">
-        <v>17.08</v>
+        <v>7.93</v>
       </c>
       <c r="H106">
-        <v>19.76</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3946,25 +3832,25 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C107">
-        <v>1931</v>
+        <v>695</v>
       </c>
       <c r="D107">
-        <v>123141363.71</v>
+        <v>65941021.14</v>
       </c>
       <c r="E107">
-        <v>6.12</v>
+        <v>2.88</v>
       </c>
       <c r="F107">
-        <v>3.19</v>
+        <v>2.13</v>
       </c>
       <c r="G107">
-        <v>19.07</v>
+        <v>15.95</v>
       </c>
       <c r="H107">
-        <v>23.01</v>
+        <v>37.55</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3972,25 +3858,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C108">
-        <v>2149</v>
+        <v>606</v>
       </c>
       <c r="D108">
-        <v>77716805.65000001</v>
+        <v>38754149.37</v>
       </c>
       <c r="E108">
-        <v>6.12</v>
+        <v>2.54</v>
       </c>
       <c r="F108">
-        <v>2.59</v>
+        <v>1.31</v>
       </c>
       <c r="G108">
-        <v>13.56</v>
+        <v>6.38</v>
       </c>
       <c r="H108">
-        <v>21.9</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3998,25 +3884,25 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C109">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="D109">
-        <v>38578465.99</v>
+        <v>4310861.48</v>
       </c>
       <c r="E109">
-        <v>5.93</v>
+        <v>1.96</v>
       </c>
       <c r="F109">
-        <v>2.59</v>
+        <v>0.95</v>
       </c>
       <c r="G109">
-        <v>18.81</v>
+        <v>5.74</v>
       </c>
       <c r="H109">
-        <v>27.36</v>
+        <v>26.12</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4024,25 +3910,25 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C110">
-        <v>1664</v>
+        <v>52</v>
       </c>
       <c r="D110">
-        <v>154322417.41</v>
+        <v>316855168.2</v>
       </c>
       <c r="E110">
-        <v>5.69</v>
+        <v>-0.64</v>
       </c>
       <c r="F110">
-        <v>2.48</v>
+        <v>-0.34</v>
       </c>
       <c r="G110">
-        <v>12.5</v>
+        <v>0.04</v>
       </c>
       <c r="H110">
-        <v>21.06</v>
+        <v>37.16</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4050,519 +3936,25 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C111">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="D111">
-        <v>187277649.57</v>
+        <v>11838401.26</v>
       </c>
       <c r="E111">
-        <v>5.48</v>
+        <v>-1.42</v>
       </c>
       <c r="F111">
-        <v>3.44</v>
+        <v>-0.93</v>
       </c>
       <c r="G111">
-        <v>20.5</v>
+        <v>-2.97</v>
       </c>
       <c r="H111">
-        <v>25.54</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112">
-        <v>6554</v>
-      </c>
-      <c r="D112">
-        <v>352432984.35</v>
-      </c>
-      <c r="E112">
-        <v>5.42</v>
-      </c>
-      <c r="F112">
-        <v>2.92</v>
-      </c>
-      <c r="G112">
-        <v>14.17</v>
-      </c>
-      <c r="H112">
-        <v>19.69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" t="s">
-        <v>248</v>
-      </c>
-      <c r="C113">
-        <v>626</v>
-      </c>
-      <c r="D113">
-        <v>343631664.72</v>
-      </c>
-      <c r="E113">
-        <v>5.34</v>
-      </c>
-      <c r="F113">
-        <v>2.29</v>
-      </c>
-      <c r="G113">
-        <v>14.23</v>
-      </c>
-      <c r="H113">
-        <v>24.38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>120</v>
-      </c>
-      <c r="B114" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114">
-        <v>3123</v>
-      </c>
-      <c r="D114">
-        <v>254451013.04</v>
-      </c>
-      <c r="E114">
-        <v>5.16</v>
-      </c>
-      <c r="F114">
-        <v>2.08</v>
-      </c>
-      <c r="G114">
-        <v>11.84</v>
-      </c>
-      <c r="H114">
-        <v>24.16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115">
-        <v>257</v>
-      </c>
-      <c r="D115">
-        <v>11127467.32</v>
-      </c>
-      <c r="E115">
-        <v>5.07</v>
-      </c>
-      <c r="F115">
-        <v>2.27</v>
-      </c>
-      <c r="G115">
-        <v>12.81</v>
-      </c>
-      <c r="H115">
-        <v>22.19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116">
-        <v>111</v>
-      </c>
-      <c r="D116">
-        <v>4196839.38</v>
-      </c>
-      <c r="E116">
-        <v>4.95</v>
-      </c>
-      <c r="F116">
-        <v>2.19</v>
-      </c>
-      <c r="G116">
-        <v>15.48</v>
-      </c>
-      <c r="H116">
-        <v>28.29</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117">
-        <v>753</v>
-      </c>
-      <c r="D117">
-        <v>53450917.18</v>
-      </c>
-      <c r="E117">
-        <v>4.9</v>
-      </c>
-      <c r="F117">
-        <v>2.8</v>
-      </c>
-      <c r="G117">
-        <v>14.49</v>
-      </c>
-      <c r="H117">
-        <v>21.31</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>124</v>
-      </c>
-      <c r="B118" t="s">
-        <v>253</v>
-      </c>
-      <c r="C118">
-        <v>45528</v>
-      </c>
-      <c r="D118">
-        <v>2265299244.69</v>
-      </c>
-      <c r="E118">
-        <v>4.67</v>
-      </c>
-      <c r="F118">
-        <v>2.42</v>
-      </c>
-      <c r="G118">
-        <v>13.61</v>
-      </c>
-      <c r="H118">
-        <v>21.63</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>125</v>
-      </c>
-      <c r="B119" t="s">
-        <v>254</v>
-      </c>
-      <c r="C119">
-        <v>49</v>
-      </c>
-      <c r="D119">
-        <v>10206229.56</v>
-      </c>
-      <c r="E119">
-        <v>4.43</v>
-      </c>
-      <c r="F119">
-        <v>2.5</v>
-      </c>
-      <c r="G119">
-        <v>10.45</v>
-      </c>
-      <c r="H119">
-        <v>18.65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120">
-        <v>434</v>
-      </c>
-      <c r="D120">
-        <v>110803117.35</v>
-      </c>
-      <c r="E120">
-        <v>4.13</v>
-      </c>
-      <c r="F120">
-        <v>2.4</v>
-      </c>
-      <c r="G120">
-        <v>17.49</v>
-      </c>
-      <c r="H120">
-        <v>32.49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121" t="s">
-        <v>256</v>
-      </c>
-      <c r="C121">
-        <v>377</v>
-      </c>
-      <c r="D121">
-        <v>610711433.76</v>
-      </c>
-      <c r="E121">
-        <v>3.9</v>
-      </c>
-      <c r="F121">
-        <v>1.96</v>
-      </c>
-      <c r="G121">
-        <v>18.39</v>
-      </c>
-      <c r="H121">
-        <v>37.29</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>128</v>
-      </c>
-      <c r="B122" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122">
-        <v>174</v>
-      </c>
-      <c r="D122">
-        <v>14312078.69</v>
-      </c>
-      <c r="E122">
-        <v>3.76</v>
-      </c>
-      <c r="F122">
-        <v>1.71</v>
-      </c>
-      <c r="G122">
-        <v>9.94</v>
-      </c>
-      <c r="H122">
-        <v>24.13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>129</v>
-      </c>
-      <c r="B123" t="s">
-        <v>258</v>
-      </c>
-      <c r="C123">
-        <v>1429</v>
-      </c>
-      <c r="D123">
-        <v>1295368016.3</v>
-      </c>
-      <c r="E123">
-        <v>3.62</v>
-      </c>
-      <c r="F123">
-        <v>2.62</v>
-      </c>
-      <c r="G123">
-        <v>4.76</v>
-      </c>
-      <c r="H123">
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>130</v>
-      </c>
-      <c r="B124" t="s">
-        <v>259</v>
-      </c>
-      <c r="C124">
-        <v>438</v>
-      </c>
-      <c r="D124">
-        <v>521836705.04</v>
-      </c>
-      <c r="E124">
-        <v>3.34</v>
-      </c>
-      <c r="F124">
-        <v>1.6</v>
-      </c>
-      <c r="G124">
-        <v>9.57</v>
-      </c>
-      <c r="H124">
-        <v>25.68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>131</v>
-      </c>
-      <c r="B125" t="s">
-        <v>260</v>
-      </c>
-      <c r="C125">
-        <v>115</v>
-      </c>
-      <c r="D125">
-        <v>4384480.41</v>
-      </c>
-      <c r="E125">
-        <v>3.33</v>
-      </c>
-      <c r="F125">
-        <v>3.65</v>
-      </c>
-      <c r="G125">
-        <v>5.6</v>
-      </c>
-      <c r="H125">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
-        <v>132</v>
-      </c>
-      <c r="B126" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126">
-        <v>290</v>
-      </c>
-      <c r="D126">
-        <v>69792171.36</v>
-      </c>
-      <c r="E126">
-        <v>3.16</v>
-      </c>
-      <c r="F126">
-        <v>1.39</v>
-      </c>
-      <c r="G126">
-        <v>8.26</v>
-      </c>
-      <c r="H126">
-        <v>24.48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="s">
-        <v>133</v>
-      </c>
-      <c r="B127" t="s">
-        <v>262</v>
-      </c>
-      <c r="C127">
-        <v>25</v>
-      </c>
-      <c r="D127">
-        <v>2443548.5</v>
-      </c>
-      <c r="E127">
-        <v>2.92</v>
-      </c>
-      <c r="F127">
-        <v>1.1</v>
-      </c>
-      <c r="G127">
-        <v>6.1</v>
-      </c>
-      <c r="H127">
-        <v>22.68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>134</v>
-      </c>
-      <c r="B128" t="s">
-        <v>263</v>
-      </c>
-      <c r="C128">
-        <v>49</v>
-      </c>
-      <c r="D128">
-        <v>4446769.11</v>
-      </c>
-      <c r="E128">
-        <v>2.85</v>
-      </c>
-      <c r="F128">
-        <v>1.33</v>
-      </c>
-      <c r="G128">
-        <v>7.45</v>
-      </c>
-      <c r="H128">
-        <v>21.43</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
-        <v>135</v>
-      </c>
-      <c r="B129" t="s">
-        <v>264</v>
-      </c>
-      <c r="C129">
-        <v>628</v>
-      </c>
-      <c r="D129">
-        <v>57750577.95</v>
-      </c>
-      <c r="E129">
-        <v>2.77</v>
-      </c>
-      <c r="F129">
-        <v>2.04</v>
-      </c>
-      <c r="G129">
-        <v>14.94</v>
-      </c>
-      <c r="H129">
-        <v>37.91</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>136</v>
-      </c>
-      <c r="B130" t="s">
-        <v>265</v>
-      </c>
-      <c r="C130">
-        <v>52</v>
-      </c>
-      <c r="D130">
-        <v>316855168.2</v>
-      </c>
-      <c r="E130">
-        <v>-0.64</v>
-      </c>
-      <c r="F130">
-        <v>-0.34</v>
-      </c>
-      <c r="G130">
-        <v>0.04</v>
-      </c>
-      <c r="H130">
-        <v>37.16</v>
+        <v>16.34</v>
       </c>
     </row>
   </sheetData>
